--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H2">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I2">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J2">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N2">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O2">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P2">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q2">
-        <v>870.7420705344407</v>
+        <v>1170.548797395768</v>
       </c>
       <c r="R2">
-        <v>870.7420705344407</v>
+        <v>4682.195189583072</v>
       </c>
       <c r="S2">
-        <v>0.1364753085527329</v>
+        <v>0.1438585070127465</v>
       </c>
       <c r="T2">
-        <v>0.1364753085527329</v>
+        <v>0.09297886274359256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H3">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I3">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J3">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N3">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P3">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q3">
-        <v>130.0945189543026</v>
+        <v>188.2296804668341</v>
       </c>
       <c r="R3">
-        <v>130.0945189543026</v>
+        <v>1129.378082801004</v>
       </c>
       <c r="S3">
-        <v>0.02039029721443273</v>
+        <v>0.0231331157382666</v>
       </c>
       <c r="T3">
-        <v>0.02039029721443273</v>
+        <v>0.02242714912441034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H4">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I4">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J4">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N4">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O4">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P4">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q4">
-        <v>24.25853846255927</v>
+        <v>36.020932540667</v>
       </c>
       <c r="R4">
-        <v>24.25853846255927</v>
+        <v>216.125595244002</v>
       </c>
       <c r="S4">
-        <v>0.00380214949265526</v>
+        <v>0.004426912904473459</v>
       </c>
       <c r="T4">
-        <v>0.00380214949265526</v>
+        <v>0.004291814254193595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H5">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I5">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J5">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N5">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O5">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P5">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q5">
-        <v>27.81361055558275</v>
+        <v>38.164414044754</v>
       </c>
       <c r="R5">
-        <v>27.81361055558275</v>
+        <v>228.986484268524</v>
       </c>
       <c r="S5">
-        <v>0.004359351880412633</v>
+        <v>0.004690343228500466</v>
       </c>
       <c r="T5">
-        <v>0.004359351880412633</v>
+        <v>0.004547205323329711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H6">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I6">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J6">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N6">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O6">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P6">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q6">
-        <v>530.072793827311</v>
+        <v>717.2600374172791</v>
       </c>
       <c r="R6">
-        <v>530.072793827311</v>
+        <v>4303.560224503674</v>
       </c>
       <c r="S6">
-        <v>0.08308068547622802</v>
+        <v>0.0881500697385019</v>
       </c>
       <c r="T6">
-        <v>0.08308068547622802</v>
+        <v>0.08545994330034375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H7">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I7">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J7">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N7">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O7">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P7">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q7">
-        <v>32.88245817136012</v>
+        <v>44.5908486658575</v>
       </c>
       <c r="R7">
-        <v>32.88245817136012</v>
+        <v>178.36339466343</v>
       </c>
       <c r="S7">
-        <v>0.005153815092630469</v>
+        <v>0.005480141391604638</v>
       </c>
       <c r="T7">
-        <v>0.005153815092630469</v>
+        <v>0.003541933840731023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H8">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J8">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N8">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O8">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P8">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q8">
-        <v>489.5589749791436</v>
+        <v>542.9036195731679</v>
       </c>
       <c r="R8">
-        <v>489.5589749791436</v>
+        <v>3257.421717439008</v>
       </c>
       <c r="S8">
-        <v>0.07673077301069216</v>
+        <v>0.06672195498160478</v>
       </c>
       <c r="T8">
-        <v>0.07673077301069216</v>
+        <v>0.06468576266055417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H9">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J9">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N9">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P9">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q9">
-        <v>73.14328950544721</v>
+        <v>87.30142225928402</v>
       </c>
       <c r="R9">
-        <v>73.14328950544721</v>
+        <v>785.7128003335561</v>
       </c>
       <c r="S9">
-        <v>0.01146407569085402</v>
+        <v>0.01072920009336756</v>
       </c>
       <c r="T9">
-        <v>0.01146407569085402</v>
+        <v>0.01560265637379433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H10">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J10">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N10">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O10">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P10">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q10">
-        <v>13.63892434522367</v>
+        <v>16.706603518142</v>
       </c>
       <c r="R10">
-        <v>13.63892434522367</v>
+        <v>150.359431663278</v>
       </c>
       <c r="S10">
-        <v>0.002137689760642106</v>
+        <v>0.002053213881147759</v>
       </c>
       <c r="T10">
-        <v>0.002137689760642106</v>
+        <v>0.002985832156234689</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H11">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J11">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N11">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O11">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P11">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q11">
-        <v>15.63769930824952</v>
+        <v>17.700755893204</v>
       </c>
       <c r="R11">
-        <v>15.63769930824952</v>
+        <v>159.306803038836</v>
       </c>
       <c r="S11">
-        <v>0.002450966721796633</v>
+        <v>0.002175393560233141</v>
       </c>
       <c r="T11">
-        <v>0.002450966721796633</v>
+        <v>0.003163508733429676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H12">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J12">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N12">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O12">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P12">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q12">
-        <v>298.0238378181879</v>
+        <v>332.6670971388541</v>
       </c>
       <c r="R12">
-        <v>298.0238378181879</v>
+        <v>2994.003874249686</v>
       </c>
       <c r="S12">
-        <v>0.04671061224518848</v>
+        <v>0.04088423484192363</v>
       </c>
       <c r="T12">
-        <v>0.04671061224518848</v>
+        <v>0.05945482065698212</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H13">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J13">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N13">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O13">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P13">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q13">
-        <v>18.48756717047692</v>
+        <v>20.681353220295</v>
       </c>
       <c r="R13">
-        <v>18.48756717047692</v>
+        <v>124.08811932177</v>
       </c>
       <c r="S13">
-        <v>0.002897639288786858</v>
+        <v>0.002541704031386032</v>
       </c>
       <c r="T13">
-        <v>0.002897639288786858</v>
+        <v>0.002464137385856559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J14">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N14">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O14">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P14">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q14">
-        <v>1241.447265863474</v>
+        <v>3.730040796589333</v>
       </c>
       <c r="R14">
-        <v>1241.447265863474</v>
+        <v>22.380244779536</v>
       </c>
       <c r="S14">
-        <v>0.1945775958162606</v>
+        <v>0.0004584158313500456</v>
       </c>
       <c r="T14">
-        <v>0.1945775958162606</v>
+        <v>0.000444426091452581</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J15">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N15">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P15">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q15">
-        <v>185.4802820776934</v>
+        <v>0.5998078754446667</v>
       </c>
       <c r="R15">
-        <v>185.4802820776934</v>
+        <v>5.398270879002</v>
       </c>
       <c r="S15">
-        <v>0.0290711561822944</v>
+        <v>7.371539370928334E-05</v>
       </c>
       <c r="T15">
-        <v>0.0290711561822944</v>
+        <v>0.0001071986678872638</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J16">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N16">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O16">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P16">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q16">
-        <v>34.58624231823764</v>
+        <v>0.1147833804167778</v>
       </c>
       <c r="R16">
-        <v>34.58624231823764</v>
+        <v>1.033050423751</v>
       </c>
       <c r="S16">
-        <v>0.005420856820624207</v>
+        <v>1.410668719951775E-05</v>
       </c>
       <c r="T16">
-        <v>0.005420856820624207</v>
+        <v>2.051427795467607E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J17">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N17">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O17">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P17">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q17">
-        <v>39.65483229359357</v>
+        <v>0.1216137436402222</v>
       </c>
       <c r="R17">
-        <v>39.65483229359357</v>
+        <v>1.094523692762</v>
       </c>
       <c r="S17">
-        <v>0.006215279651703701</v>
+        <v>1.494612751833708E-05</v>
       </c>
       <c r="T17">
-        <v>0.006215279651703701</v>
+        <v>2.173501190752153E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J18">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N18">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O18">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P18">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q18">
-        <v>755.7432250880314</v>
+        <v>2.285602451843</v>
       </c>
       <c r="R18">
-        <v>755.7432250880314</v>
+        <v>20.570422066587</v>
       </c>
       <c r="S18">
-        <v>0.1184510239263178</v>
+        <v>0.0002808967529404388</v>
       </c>
       <c r="T18">
-        <v>0.1184510239263178</v>
+        <v>0.0004084866974709079</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J19">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N19">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O19">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P19">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q19">
-        <v>46.8816647008334</v>
+        <v>0.1420920554941666</v>
       </c>
       <c r="R19">
-        <v>46.8816647008334</v>
+        <v>0.8525523329649999</v>
       </c>
       <c r="S19">
-        <v>0.007347973495279661</v>
+        <v>1.746287810234014E-05</v>
       </c>
       <c r="T19">
-        <v>0.007347973495279661</v>
+        <v>1.692995339554414E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H20">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I20">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J20">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N20">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O20">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P20">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q20">
-        <v>836.3648649975286</v>
+        <v>103.6247651758667</v>
       </c>
       <c r="R20">
-        <v>836.3648649975286</v>
+        <v>621.7485910552</v>
       </c>
       <c r="S20">
-        <v>0.13108721500403</v>
+        <v>0.01273531188183896</v>
       </c>
       <c r="T20">
-        <v>0.13108721500403</v>
+        <v>0.01234666103569492</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H21">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I21">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J21">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N21">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O21">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P21">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q21">
-        <v>124.9583412403065</v>
+        <v>16.66334328043333</v>
       </c>
       <c r="R21">
-        <v>124.9583412403065</v>
+        <v>149.9700895239</v>
       </c>
       <c r="S21">
-        <v>0.01958528105405696</v>
+        <v>0.002047897269637303</v>
       </c>
       <c r="T21">
-        <v>0.01958528105405696</v>
+        <v>0.002978100614111442</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H22">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I22">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J22">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N22">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O22">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P22">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q22">
-        <v>23.30080276679734</v>
+        <v>3.188812533272223</v>
       </c>
       <c r="R22">
-        <v>23.30080276679734</v>
+        <v>28.69931279945001</v>
       </c>
       <c r="S22">
-        <v>0.003652039283198111</v>
+        <v>0.0003918997748754037</v>
       </c>
       <c r="T22">
-        <v>0.003652039283198111</v>
+        <v>0.0005699099156635336</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H23">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I23">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J23">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N23">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O23">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P23">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q23">
-        <v>26.71551935366571</v>
+        <v>3.378567772877778</v>
       </c>
       <c r="R23">
-        <v>26.71551935366571</v>
+        <v>30.4071099559</v>
       </c>
       <c r="S23">
-        <v>0.004187243123213515</v>
+        <v>0.0004152203793032015</v>
       </c>
       <c r="T23">
-        <v>0.004187243123213515</v>
+        <v>0.0006038232898339943</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H24">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I24">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J24">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N24">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O24">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P24">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q24">
-        <v>509.1453320684663</v>
+        <v>63.49662919885001</v>
       </c>
       <c r="R24">
-        <v>509.1453320684663</v>
+        <v>571.4696627896501</v>
       </c>
       <c r="S24">
-        <v>0.07980063056971495</v>
+        <v>0.007803630482736809</v>
       </c>
       <c r="T24">
-        <v>0.07980063056971495</v>
+        <v>0.01134822389653034</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.19545</v>
+      </c>
+      <c r="I25">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J25">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N25">
+        <v>19.812515</v>
+      </c>
+      <c r="O25">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P25">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q25">
+        <v>3.947478509458333</v>
+      </c>
+      <c r="R25">
+        <v>23.68487105675</v>
+      </c>
+      <c r="S25">
+        <v>0.0004851385658581608</v>
+      </c>
+      <c r="T25">
+        <v>0.0004703333128838103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H26">
+        <v>19.023016</v>
+      </c>
+      <c r="I26">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J26">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>260.047928</v>
+      </c>
+      <c r="N26">
+        <v>520.0958559999999</v>
+      </c>
+      <c r="O26">
+        <v>0.5333246545957803</v>
+      </c>
+      <c r="P26">
+        <v>0.4360150557860642</v>
+      </c>
+      <c r="Q26">
+        <v>1648.965298370282</v>
+      </c>
+      <c r="R26">
+        <v>9893.791790221694</v>
+      </c>
+      <c r="S26">
+        <v>0.2026551020061169</v>
+      </c>
+      <c r="T26">
+        <v>0.196470559562174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H27">
+        <v>19.023016</v>
+      </c>
+      <c r="I27">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J27">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>41.816914</v>
+      </c>
+      <c r="N27">
+        <v>125.450742</v>
+      </c>
+      <c r="O27">
+        <v>0.08576108022407106</v>
+      </c>
+      <c r="P27">
+        <v>0.1051698675167548</v>
+      </c>
+      <c r="Q27">
+        <v>265.1612746975413</v>
+      </c>
+      <c r="R27">
+        <v>2386.451472277872</v>
+      </c>
+      <c r="S27">
+        <v>0.03258788115493472</v>
+      </c>
+      <c r="T27">
+        <v>0.04739006703070123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H28">
+        <v>19.023016</v>
+      </c>
+      <c r="I28">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J28">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.002373666666667</v>
+      </c>
+      <c r="N28">
+        <v>24.007121</v>
+      </c>
+      <c r="O28">
+        <v>0.01641183302072443</v>
+      </c>
+      <c r="P28">
+        <v>0.0201260326943997</v>
+      </c>
+      <c r="Q28">
+        <v>50.74309409965955</v>
+      </c>
+      <c r="R28">
+        <v>456.687846896936</v>
+      </c>
+      <c r="S28">
+        <v>0.006236242158058639</v>
+      </c>
+      <c r="T28">
+        <v>0.009068890747606381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H29">
+        <v>19.023016</v>
+      </c>
+      <c r="I29">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J29">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.478567333333332</v>
+      </c>
+      <c r="N29">
+        <v>25.435702</v>
+      </c>
+      <c r="O29">
+        <v>0.01738844461978203</v>
+      </c>
+      <c r="P29">
+        <v>0.02132366351038126</v>
+      </c>
+      <c r="Q29">
+        <v>53.76264067969243</v>
+      </c>
+      <c r="R29">
+        <v>483.8637661172319</v>
+      </c>
+      <c r="S29">
+        <v>0.006607339427839615</v>
+      </c>
+      <c r="T29">
+        <v>0.009608549168668459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H30">
+        <v>19.023016</v>
+      </c>
+      <c r="I30">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J30">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>159.345759</v>
+      </c>
+      <c r="N30">
+        <v>478.037277</v>
+      </c>
+      <c r="O30">
+        <v>0.3267975351065956</v>
+      </c>
+      <c r="P30">
+        <v>0.4007558368220747</v>
+      </c>
+      <c r="Q30">
+        <v>1010.412307663048</v>
+      </c>
+      <c r="R30">
+        <v>9093.710768967432</v>
+      </c>
+      <c r="S30">
+        <v>0.1241779978511774</v>
+      </c>
+      <c r="T30">
+        <v>0.1805825795769617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H31">
+        <v>19.023016</v>
+      </c>
+      <c r="I31">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J31">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N31">
+        <v>19.812515</v>
+      </c>
+      <c r="O31">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P31">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q31">
+        <v>62.81563164087332</v>
+      </c>
+      <c r="R31">
+        <v>376.89378984524</v>
+      </c>
+      <c r="S31">
+        <v>0.007719937011616416</v>
+      </c>
+      <c r="T31">
+        <v>0.007484343248418359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.3447175</v>
+      </c>
+      <c r="H32">
+        <v>6.689435</v>
+      </c>
+      <c r="I32">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J32">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>260.047928</v>
+      </c>
+      <c r="N32">
+        <v>520.0958559999999</v>
+      </c>
+      <c r="O32">
+        <v>0.5333246545957803</v>
+      </c>
+      <c r="P32">
+        <v>0.4360150557860642</v>
+      </c>
+      <c r="Q32">
+        <v>869.7868556203398</v>
+      </c>
+      <c r="R32">
+        <v>3479.147422481359</v>
+      </c>
+      <c r="S32">
+        <v>0.1068953628821231</v>
+      </c>
+      <c r="T32">
+        <v>0.06908878369259594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.3447175</v>
+      </c>
+      <c r="H33">
+        <v>6.689435</v>
+      </c>
+      <c r="I33">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J33">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>41.816914</v>
+      </c>
+      <c r="N33">
+        <v>125.450742</v>
+      </c>
+      <c r="O33">
+        <v>0.08576108022407106</v>
+      </c>
+      <c r="P33">
+        <v>0.1051698675167548</v>
+      </c>
+      <c r="Q33">
+        <v>139.865764051795</v>
+      </c>
+      <c r="R33">
+        <v>839.19458431077</v>
+      </c>
+      <c r="S33">
+        <v>0.0171892705741556</v>
+      </c>
+      <c r="T33">
+        <v>0.01666469570585016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.3447175</v>
+      </c>
+      <c r="H34">
+        <v>6.689435</v>
+      </c>
+      <c r="I34">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J34">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.002373666666667</v>
+      </c>
+      <c r="N34">
+        <v>24.007121</v>
+      </c>
+      <c r="O34">
+        <v>0.01641183302072443</v>
+      </c>
+      <c r="P34">
+        <v>0.0201260326943997</v>
+      </c>
+      <c r="Q34">
+        <v>26.76567924443917</v>
+      </c>
+      <c r="R34">
+        <v>160.594075466635</v>
+      </c>
+      <c r="S34">
+        <v>0.00328945761496965</v>
+      </c>
+      <c r="T34">
+        <v>0.003189071342746823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="H25">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="I25">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="J25">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>9.79324808432963</v>
-      </c>
-      <c r="N25">
-        <v>9.79324808432963</v>
-      </c>
-      <c r="O25">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="P25">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="Q25">
-        <v>31.58424706916548</v>
-      </c>
-      <c r="R25">
-        <v>31.58424706916548</v>
-      </c>
-      <c r="S25">
-        <v>0.004950340646254113</v>
-      </c>
-      <c r="T25">
-        <v>0.004950340646254113</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.3447175</v>
+      </c>
+      <c r="H35">
+        <v>6.689435</v>
+      </c>
+      <c r="I35">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J35">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.478567333333332</v>
+      </c>
+      <c r="N35">
+        <v>25.435702</v>
+      </c>
+      <c r="O35">
+        <v>0.01738844461978203</v>
+      </c>
+      <c r="P35">
+        <v>0.02132366351038126</v>
+      </c>
+      <c r="Q35">
+        <v>28.35841253472833</v>
+      </c>
+      <c r="R35">
+        <v>170.15047520837</v>
+      </c>
+      <c r="S35">
+        <v>0.003485201896387274</v>
+      </c>
+      <c r="T35">
+        <v>0.003378841983211899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.3447175</v>
+      </c>
+      <c r="H36">
+        <v>6.689435</v>
+      </c>
+      <c r="I36">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J36">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>159.345759</v>
+      </c>
+      <c r="N36">
+        <v>478.037277</v>
+      </c>
+      <c r="O36">
+        <v>0.3267975351065956</v>
+      </c>
+      <c r="P36">
+        <v>0.4007558368220747</v>
+      </c>
+      <c r="Q36">
+        <v>532.9665486780825</v>
+      </c>
+      <c r="R36">
+        <v>3197.799292068495</v>
+      </c>
+      <c r="S36">
+        <v>0.06550070543931552</v>
+      </c>
+      <c r="T36">
+        <v>0.06350178269378592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.3447175</v>
+      </c>
+      <c r="H37">
+        <v>6.689435</v>
+      </c>
+      <c r="I37">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J37">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N37">
+        <v>19.812515</v>
+      </c>
+      <c r="O37">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P37">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q37">
+        <v>33.13363281975624</v>
+      </c>
+      <c r="R37">
+        <v>132.534531279025</v>
+      </c>
+      <c r="S37">
+        <v>0.004072068554479132</v>
+      </c>
+      <c r="T37">
+        <v>0.002631865929040036</v>
       </c>
     </row>
   </sheetData>
